--- a/data/bank.xlsx
+++ b/data/bank.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suggu/Documents/Assessment/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FC977A-C1B8-E546-A82E-664FA16A246A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD23927-6EAF-DA44-8436-E3A5DA4AD68C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17180" xr2:uid="{085446E9-BC56-9D46-8BE1-A8F3F77851B4}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17160" xr2:uid="{085446E9-BC56-9D46-8BE1-A8F3F77851B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -522,13 +522,14 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.1640625" customWidth="1"/>
     <col min="2" max="2" width="41.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.83203125" customWidth="1"/>
     <col min="4" max="4" width="34.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -614,7 +615,7 @@
         <v>18</v>
       </c>
       <c r="E5" s="2">
-        <v>2700</v>
+        <v>600</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
